--- a/results/budget_raw_Efficient_Chillers_Upgrade.xlsx
+++ b/results/budget_raw_Efficient_Chillers_Upgrade.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wrhiza-my.sharepoint.com/personal/cparker_wrhi_ac_za/Documents/Desktop/Carbomica_reload0109/carbomica/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_23F921ED8FE30C0E432C4C55752F5D64656685C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76C1E092-1CF5-401C-8698-D1286F8046C4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,7 +22,7 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>LCHC_Laudium</t>
+    <t>MRH_Mamelodi</t>
   </si>
   <si>
     <t>facilities_number</t>
@@ -226,8 +220,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,21 +284,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,7 +328,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -376,7 +362,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -411,10 +396,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,22 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="E1" s="1">
         <v>2024</v>
       </c>
@@ -622,7 +598,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -668,25 +644,25 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>335352.25199999998</v>
+        <v>2048387.692</v>
       </c>
       <c r="F3">
-        <v>335352.25199999998</v>
+        <v>2048387.692</v>
       </c>
       <c r="G3">
-        <v>335352.25199999998</v>
+        <v>2048387.692</v>
       </c>
       <c r="H3">
-        <v>335352.25199999998</v>
+        <v>2048387.692</v>
       </c>
       <c r="I3">
-        <v>335352.25199999998</v>
+        <v>2048387.692</v>
       </c>
       <c r="J3">
-        <v>335352.25199999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2048387.692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -700,25 +676,25 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="F4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="G4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="H4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="I4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="J4">
-        <v>89731.38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1112993.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -750,7 +726,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -764,25 +740,25 @@
         <v>39</v>
       </c>
       <c r="E6">
-        <v>80758.242000000013</v>
+        <v>1001694.42</v>
       </c>
       <c r="F6">
-        <v>80758.242000000013</v>
+        <v>1001694.42</v>
       </c>
       <c r="G6">
-        <v>80758.242000000013</v>
+        <v>1001694.42</v>
       </c>
       <c r="H6">
-        <v>80758.242000000013</v>
+        <v>1001694.42</v>
       </c>
       <c r="I6">
-        <v>80758.242000000013</v>
+        <v>1001694.42</v>
       </c>
       <c r="J6">
-        <v>80758.242000000013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1001694.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -814,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -878,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -910,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -942,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -974,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,25 +964,25 @@
         <v>46</v>
       </c>
       <c r="E13">
-        <v>79913.850000000006</v>
+        <v>314576.98</v>
       </c>
       <c r="F13">
-        <v>79913.850000000006</v>
+        <v>314576.98</v>
       </c>
       <c r="G13">
-        <v>79913.850000000006</v>
+        <v>314576.98</v>
       </c>
       <c r="H13">
-        <v>79913.850000000006</v>
+        <v>314576.98</v>
       </c>
       <c r="I13">
-        <v>79913.850000000006</v>
+        <v>314576.98</v>
       </c>
       <c r="J13">
-        <v>79913.850000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>314576.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1052,25 +1028,25 @@
         <v>48</v>
       </c>
       <c r="E15">
-        <v>79913.850000000006</v>
+        <v>314576.98</v>
       </c>
       <c r="F15">
-        <v>79913.850000000006</v>
+        <v>314576.98</v>
       </c>
       <c r="G15">
-        <v>79913.850000000006</v>
+        <v>314576.98</v>
       </c>
       <c r="H15">
-        <v>79913.850000000006</v>
+        <v>314576.98</v>
       </c>
       <c r="I15">
-        <v>79913.850000000006</v>
+        <v>314576.98</v>
       </c>
       <c r="J15">
-        <v>79913.850000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>314576.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1084,25 +1060,25 @@
         <v>49</v>
       </c>
       <c r="E16">
-        <v>9245.64</v>
+        <v>15960.58</v>
       </c>
       <c r="F16">
-        <v>9245.64</v>
+        <v>15960.58</v>
       </c>
       <c r="G16">
-        <v>9245.64</v>
+        <v>15960.58</v>
       </c>
       <c r="H16">
-        <v>9245.64</v>
+        <v>15960.58</v>
       </c>
       <c r="I16">
-        <v>9245.64</v>
+        <v>15960.58</v>
       </c>
       <c r="J16">
-        <v>9245.64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15960.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1134,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1148,25 +1124,25 @@
         <v>51</v>
       </c>
       <c r="E18">
-        <v>9245.64</v>
+        <v>15960.58</v>
       </c>
       <c r="F18">
-        <v>9245.64</v>
+        <v>15960.58</v>
       </c>
       <c r="G18">
-        <v>9245.64</v>
+        <v>15960.58</v>
       </c>
       <c r="H18">
-        <v>9245.64</v>
+        <v>15960.58</v>
       </c>
       <c r="I18">
-        <v>9245.64</v>
+        <v>15960.58</v>
       </c>
       <c r="J18">
-        <v>9245.64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15960.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1180,25 +1156,25 @@
         <v>52</v>
       </c>
       <c r="E19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="F19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="G19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="H19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="I19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="J19">
-        <v>20513.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>404290.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1230,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1244,25 +1220,25 @@
         <v>54</v>
       </c>
       <c r="E21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="F21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="G21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="H21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="I21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="J21">
-        <v>20513.68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>404290.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1276,25 +1252,25 @@
         <v>55</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>27835.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1326,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1340,25 +1316,25 @@
         <v>57</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>27835.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1372,25 +1348,25 @@
         <v>58</v>
       </c>
       <c r="E25">
-        <v>34483.800000000003</v>
+        <v>159163.18</v>
       </c>
       <c r="F25">
-        <v>34483.800000000003</v>
+        <v>159163.18</v>
       </c>
       <c r="G25">
-        <v>34483.800000000003</v>
+        <v>159163.18</v>
       </c>
       <c r="H25">
-        <v>34483.800000000003</v>
+        <v>159163.18</v>
       </c>
       <c r="I25">
-        <v>34483.800000000003</v>
+        <v>159163.18</v>
       </c>
       <c r="J25">
-        <v>34483.800000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>159163.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +1398,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1436,25 +1412,25 @@
         <v>60</v>
       </c>
       <c r="E27">
-        <v>31035.42</v>
+        <v>143246.862</v>
       </c>
       <c r="F27">
-        <v>31035.42</v>
+        <v>143246.862</v>
       </c>
       <c r="G27">
-        <v>31035.42</v>
+        <v>143246.862</v>
       </c>
       <c r="H27">
-        <v>31035.42</v>
+        <v>143246.862</v>
       </c>
       <c r="I27">
-        <v>31035.42</v>
+        <v>143246.862</v>
       </c>
       <c r="J27">
-        <v>31035.42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>143246.862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1468,25 +1444,25 @@
         <v>61</v>
       </c>
       <c r="E28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="F28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="G28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="H28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="I28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="J28">
-        <v>55930.77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>93256.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1518,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1532,25 +1508,25 @@
         <v>63</v>
       </c>
       <c r="E30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="F30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="G30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="H30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="I30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="J30">
-        <v>55930.77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>93256.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1564,25 +1540,25 @@
         <v>64</v>
       </c>
       <c r="E31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="F31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="G31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="H31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="I31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="J31">
-        <v>57954.65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>47526.39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1628,22 +1604,22 @@
         <v>66</v>
       </c>
       <c r="E33">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="F33">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="G33">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="H33">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="I33">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="J33">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
     </row>
   </sheetData>
